--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02128307524261764</v>
+        <v>-0.02294635183554025</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.006419903976428427</v>
+        <v>-7.80809840788913</v>
       </c>
       <c r="I2" t="n">
-        <v>-88.79982296468222</v>
+        <v>68.44563823984758</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01062822831922503</v>
+        <v>-0.005088209417183637</v>
       </c>
       <c r="H3" t="n">
-        <v>-498.8240715512474</v>
+        <v>-290.934964484706</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06222963012829032</v>
+        <v>0.0679657537650446</v>
       </c>
       <c r="H4" t="n">
-        <v>16.92914891444126</v>
+        <v>27.70729516938374</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05986723621039438</v>
+        <v>0.07620901279824556</v>
       </c>
       <c r="H5" t="n">
-        <v>-29.81030387424418</v>
+        <v>-10.65083693601405</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02734734661067208</v>
+        <v>0.0317795767581021</v>
       </c>
       <c r="H6" t="n">
-        <v>-50.71848107462034</v>
+        <v>-42.73134298031719</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0369057254164972</v>
+        <v>0.06384648195541892</v>
       </c>
       <c r="H7" t="n">
-        <v>-50.73946588740858</v>
+        <v>-14.7798406117233</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02741700666398776</v>
+        <v>-0.0071589023024818</v>
       </c>
       <c r="H8" t="n">
-        <v>37.81055121032477</v>
+        <v>64.01604724917901</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0008074846686413869</v>
+        <v>0.005182103347514474</v>
       </c>
       <c r="H9" t="n">
-        <v>-88.83762234029246</v>
+        <v>171.6355330113155</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02675222399066693</v>
+        <v>-0.03050473063495742</v>
       </c>
       <c r="H10" t="n">
-        <v>-46.03005957045178</v>
+        <v>38.45975214014258</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06465336276810399</v>
+        <v>-0.03433407810488269</v>
       </c>
       <c r="H11" t="n">
-        <v>-16.34086972032283</v>
+        <v>55.57293557163528</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07056168261019385</v>
+        <v>-0.1002129077678734</v>
       </c>
       <c r="H12" t="n">
-        <v>-11.58445066711379</v>
+        <v>-25.56927446713623</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04556116093280022</v>
+        <v>-0.03622426372301572</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.2718590865864228</v>
+        <v>20.70925316451246</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04226182249308443</v>
+        <v>-0.03630895681779825</v>
       </c>
       <c r="H14" t="n">
-        <v>-24.12006158370822</v>
+        <v>34.80826796465849</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0498310356971596</v>
+        <v>-0.06051676607313714</v>
       </c>
       <c r="H15" t="n">
-        <v>-41.08295354099993</v>
+        <v>28.44882574891587</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1717339573501428</v>
+        <v>-0.1931910672512695</v>
       </c>
       <c r="H16" t="n">
-        <v>10.71848391352547</v>
+        <v>-24.55208277816299</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2003529400623208</v>
+        <v>-0.1587842937033834</v>
       </c>
       <c r="H17" t="n">
-        <v>2.060868766015763</v>
+        <v>19.11442399235737</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.09786302556900628</v>
+        <v>-0.08567862708378995</v>
       </c>
       <c r="H18" t="n">
-        <v>-10.21660693470784</v>
+        <v>21.39505387216681</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.06546382592353595</v>
+        <v>-0.07446886260369263</v>
       </c>
       <c r="H19" t="n">
-        <v>-25.7345366648916</v>
+        <v>15.51876922437228</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07362267377678022</v>
+        <v>0.08912428926360952</v>
       </c>
       <c r="H20" t="n">
-        <v>-19.83867765304779</v>
+        <v>-2.960317601824797</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1397803129815007</v>
+        <v>0.1531232871000044</v>
       </c>
       <c r="H21" t="n">
-        <v>85.54708340199208</v>
+        <v>103.258804593547</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1193044689188011</v>
+        <v>0.1148750088521277</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.9586878765680533</v>
+        <v>-4.635830409261088</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1707576245725133</v>
+        <v>0.1702396330272542</v>
       </c>
       <c r="H23" t="n">
-        <v>30.05287690786149</v>
+        <v>29.65836280728445</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08096359550552688</v>
+        <v>0.08846044036746673</v>
       </c>
       <c r="H24" t="n">
-        <v>-15.1261290334639</v>
+        <v>-7.267211213726194</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0869022790129159</v>
+        <v>0.08800206841437284</v>
       </c>
       <c r="H25" t="n">
-        <v>1.288110104985744</v>
+        <v>2.569958996089172</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0315585132626597</v>
+        <v>0.04383732770509187</v>
       </c>
       <c r="H26" t="n">
-        <v>-17.81229525483729</v>
+        <v>14.16537009384408</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03697415976601565</v>
+        <v>0.0411341758416397</v>
       </c>
       <c r="H27" t="n">
-        <v>3.197736731907942</v>
+        <v>14.80866302447361</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1015491475631898</v>
+        <v>-0.1096136032901521</v>
       </c>
       <c r="H28" t="n">
-        <v>3.661995608535994</v>
+        <v>-11.89424171019238</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.09157976025426631</v>
+        <v>-0.07417066330973944</v>
       </c>
       <c r="H29" t="n">
-        <v>-15.86779410553024</v>
+        <v>31.86112848975611</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1119540789598487</v>
+        <v>0.1091326058033469</v>
       </c>
       <c r="H30" t="n">
-        <v>-8.1901441458314</v>
+        <v>-10.50394142951714</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1364642202842639</v>
+        <v>0.1038299164205884</v>
       </c>
       <c r="H31" t="n">
-        <v>26.81147367818251</v>
+        <v>-3.514454662548324</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05796479133197024</v>
+        <v>0.05101797179332302</v>
       </c>
       <c r="H32" t="n">
-        <v>28.8234668493606</v>
+        <v>13.38455374398684</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06808104029653056</v>
+        <v>0.07921569000408435</v>
       </c>
       <c r="H33" t="n">
-        <v>-19.78690746082049</v>
+        <v>-6.66806139893276</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02293270142988645</v>
+        <v>0.02695554242283305</v>
       </c>
       <c r="H34" t="n">
-        <v>-5020.932217981845</v>
+        <v>5884.159252552236</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05607975806515009</v>
+        <v>0.03962916004886993</v>
       </c>
       <c r="H35" t="n">
-        <v>36.99928990855273</v>
+        <v>-3.188477024806555</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.05159396373147426</v>
+        <v>0.02954639633275564</v>
       </c>
       <c r="H36" t="n">
-        <v>24.28876485426133</v>
+        <v>-28.82335760816061</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05566018376461894</v>
+        <v>0.03486561929223821</v>
       </c>
       <c r="H37" t="n">
-        <v>32.02004446707146</v>
+        <v>-17.3024539624463</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1089869918769684</v>
+        <v>-0.08804834498968342</v>
       </c>
       <c r="H38" t="n">
-        <v>4.821480954257226</v>
+        <v>15.31688545171823</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1186279582375243</v>
+        <v>-0.1448434563064085</v>
       </c>
       <c r="H39" t="n">
-        <v>20.39785827642474</v>
+        <v>-47.00448514615207</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1226650090245798</v>
+        <v>0.121068649249695</v>
       </c>
       <c r="H40" t="n">
-        <v>-7.297985489360535</v>
+        <v>-8.504407501573638</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1417011799154772</v>
+        <v>0.1395326688378181</v>
       </c>
       <c r="H41" t="n">
-        <v>11.83904989119026</v>
+        <v>10.12753119566084</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07300049021423964</v>
+        <v>0.0808103968982937</v>
       </c>
       <c r="H42" t="n">
-        <v>-22.72713047838563</v>
+        <v>-14.46014626496764</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08797246736510249</v>
+        <v>0.1078279640528576</v>
       </c>
       <c r="H43" t="n">
-        <v>-16.90671721591914</v>
+        <v>1.847541366448339</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.03199442376865138</v>
+        <v>-0.03658044346954216</v>
       </c>
       <c r="H44" t="n">
-        <v>163.0167445770887</v>
+        <v>-200.7170632643888</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.02483045287425625</v>
+        <v>-0.02544620618592829</v>
       </c>
       <c r="H45" t="n">
-        <v>-32.08351147333631</v>
+        <v>30.39929721678575</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05685665560627123</v>
+        <v>0.070444272075354</v>
       </c>
       <c r="H46" t="n">
-        <v>4.181530332596275</v>
+        <v>29.07885611137977</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06019477160478039</v>
+        <v>0.05053622176743094</v>
       </c>
       <c r="H47" t="n">
-        <v>49.10571454880476</v>
+        <v>25.1809626707054</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.0201024182799422</v>
+        <v>-0.01910229472153049</v>
       </c>
       <c r="H48" t="n">
-        <v>-33.259660707672</v>
+        <v>36.58008637453062</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.02266181877252739</v>
+        <v>-0.01502981622786903</v>
       </c>
       <c r="H49" t="n">
-        <v>-34.58512378120355</v>
+        <v>56.61541652917997</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08681963578437828</v>
+        <v>0.09227025571108155</v>
       </c>
       <c r="H50" t="n">
-        <v>-3.574424664023423</v>
+        <v>2.479265352315838</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07008650893484299</v>
+        <v>0.0938228174328516</v>
       </c>
       <c r="H51" t="n">
-        <v>6.944235022944582</v>
+        <v>43.16320773491217</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05078377966251799</v>
+        <v>0.02641376226976027</v>
       </c>
       <c r="H52" t="n">
-        <v>245.3922120999075</v>
+        <v>79.64609646743305</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04225355381278854</v>
+        <v>0.04410738158447108</v>
       </c>
       <c r="H53" t="n">
-        <v>49.98580886239327</v>
+        <v>56.56626974053175</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05711360860284561</v>
+        <v>0.04203541567378691</v>
       </c>
       <c r="H54" t="n">
-        <v>194.3554342021463</v>
+        <v>116.6445674719416</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06307366170581552</v>
+        <v>0.06073412507133078</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.324420815139523</v>
+        <v>-6.910324234191497</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06019961964489445</v>
+        <v>0.07056482830130842</v>
       </c>
       <c r="H56" t="n">
-        <v>-6.199154450330163</v>
+        <v>9.951534574045514</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06976206582383258</v>
+        <v>0.07642865858941712</v>
       </c>
       <c r="H57" t="n">
-        <v>-7.925368547470425</v>
+        <v>0.8734544903301225</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01124058411267283</v>
+        <v>0.01988635358609587</v>
       </c>
       <c r="H58" t="n">
-        <v>-60.52653455579242</v>
+        <v>-30.16525803075973</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02602476442780061</v>
+        <v>0.04114138550880591</v>
       </c>
       <c r="H59" t="n">
-        <v>-3.110604255379448</v>
+        <v>53.16811005545649</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.05568994317194679</v>
+        <v>0.04504619946452724</v>
       </c>
       <c r="H60" t="n">
-        <v>23.73793480256134</v>
+        <v>0.08851463961718194</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04285439671490488</v>
+        <v>0.0437507194386796</v>
       </c>
       <c r="H61" t="n">
-        <v>-14.33933606758259</v>
+        <v>-12.54769727432077</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.01038542735007306</v>
+        <v>0.002932344710179803</v>
       </c>
       <c r="H62" t="n">
-        <v>-181.6103522063223</v>
+        <v>123.0428345913407</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>0.006736007241104498</v>
+        <v>-0.005217934428760093</v>
       </c>
       <c r="H63" t="n">
-        <v>61.83533088785042</v>
+        <v>-225.3630102527968</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03528006017550904</v>
+        <v>0.05307306406258239</v>
       </c>
       <c r="H64" t="n">
-        <v>-6.346907623981572</v>
+        <v>40.88571693485372</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.06658813593511333</v>
+        <v>0.07139264142358999</v>
       </c>
       <c r="H65" t="n">
-        <v>-12.85144279307293</v>
+        <v>-6.563449961714646</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>0.009335522102713713</v>
+        <v>0.002690947521082984</v>
       </c>
       <c r="H66" t="n">
-        <v>-249.6377149592616</v>
+        <v>143.1328032540459</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04196008906916313</v>
+        <v>0.002690947521082984</v>
       </c>
       <c r="H67" t="n">
-        <v>612.0395560395718</v>
+        <v>-54.33610555307792</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.008968380727392453</v>
+        <v>0.000627807328901356</v>
       </c>
       <c r="H68" t="n">
-        <v>-5325.850205603801</v>
+        <v>265.821563395271</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.009819328622796084</v>
+        <v>0.01938293376989071</v>
       </c>
       <c r="H69" t="n">
-        <v>39.40792959504449</v>
+        <v>175.1852769307657</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07821460894104997</v>
+        <v>-0.07523284303827732</v>
       </c>
       <c r="H70" t="n">
-        <v>24.15197104034483</v>
+        <v>-19.41894074047937</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06064796493765959</v>
+        <v>-0.04221787524240884</v>
       </c>
       <c r="H71" t="n">
-        <v>28.20580734262575</v>
+        <v>10.75418960377487</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06291730779682553</v>
+        <v>0.06614058184701074</v>
       </c>
       <c r="H72" t="n">
-        <v>-8.117624619379663</v>
+        <v>-3.41046077838847</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08018432892314488</v>
+        <v>0.06106784589000337</v>
       </c>
       <c r="H73" t="n">
-        <v>8.85344984298624</v>
+        <v>-17.09794433799972</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05171031080096075</v>
+        <v>0.05723075404379209</v>
       </c>
       <c r="H74" t="n">
-        <v>-17.96722107639575</v>
+        <v>-9.209638824713089</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03632946277015215</v>
+        <v>0.04237257174723589</v>
       </c>
       <c r="H75" t="n">
-        <v>37.25438959840649</v>
+        <v>60.08553464379207</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01344763330480956</v>
+        <v>0.004776672461040252</v>
       </c>
       <c r="H76" t="n">
-        <v>-21.56393402686119</v>
+        <v>-72.13908293050869</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>0.005139948558975347</v>
+        <v>0.002719112089917521</v>
       </c>
       <c r="H77" t="n">
-        <v>-143.9525796553264</v>
+        <v>123.251592764517</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02072097923961369</v>
+        <v>0.009482533763944727</v>
       </c>
       <c r="H78" t="n">
-        <v>715.9385710194186</v>
+        <v>273.3976545956279</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01271418743919288</v>
+        <v>-0.01151510872846026</v>
       </c>
       <c r="H79" t="n">
-        <v>-288.3002194550454</v>
+        <v>-70.54157105893846</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02836093503586253</v>
+        <v>0.04024918690697113</v>
       </c>
       <c r="H80" t="n">
-        <v>129.7397351941485</v>
+        <v>226.0413498389481</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03434268582336424</v>
+        <v>0.04835091085817522</v>
       </c>
       <c r="H81" t="n">
-        <v>-14.24207976580917</v>
+        <v>20.73818506661193</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.04193560199138672</v>
+        <v>0.05097908363435408</v>
       </c>
       <c r="H82" t="n">
-        <v>6.738707090121745</v>
+        <v>29.75708508698106</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04412480391359072</v>
+        <v>0.04891991039061815</v>
       </c>
       <c r="H83" t="n">
-        <v>6.332958114481237</v>
+        <v>17.88831498756164</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0317459843183636</v>
+        <v>0.03742241375552598</v>
       </c>
       <c r="H84" t="n">
-        <v>-13.13533794502287</v>
+        <v>2.396740688708743</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03390649050584529</v>
+        <v>0.02099874272220387</v>
       </c>
       <c r="H85" t="n">
-        <v>9.309792257643206</v>
+        <v>-32.30298475626389</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03705224420309304</v>
+        <v>0.02388957396413521</v>
       </c>
       <c r="H86" t="n">
-        <v>13.61454171045831</v>
+        <v>-26.74659643512922</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04491661721485527</v>
+        <v>0.05815200188966769</v>
       </c>
       <c r="H87" t="n">
-        <v>-16.81000682175464</v>
+        <v>7.703227457271768</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0690847954581621</v>
+        <v>0.07877076956690031</v>
       </c>
       <c r="H88" t="n">
-        <v>-18.22959217602249</v>
+        <v>-6.765042736577977</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.09931348579006126</v>
+        <v>0.06929129549517113</v>
       </c>
       <c r="H89" t="n">
-        <v>9.97220259050035</v>
+        <v>-23.27208812243943</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0501512411424947</v>
+        <v>-0.0370092656606965</v>
       </c>
       <c r="H90" t="n">
-        <v>0.8108567306159349</v>
+        <v>25.60631216234365</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04940427273173092</v>
+        <v>-0.03189250372715842</v>
       </c>
       <c r="H91" t="n">
-        <v>140.8313132669561</v>
+        <v>-55.46658479702216</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03209547549022917</v>
+        <v>0.03859690560331989</v>
       </c>
       <c r="H92" t="n">
-        <v>-18.76333485535553</v>
+        <v>-2.307604164615485</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04162863519460711</v>
+        <v>0.05954523779233722</v>
       </c>
       <c r="H93" t="n">
-        <v>-15.41718074927588</v>
+        <v>20.98652914960596</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.09941356055128098</v>
+        <v>0.09606277465981709</v>
       </c>
       <c r="H94" t="n">
-        <v>9.536481789824778</v>
+        <v>5.844497560041488</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.09146075355250542</v>
+        <v>0.09529284286520041</v>
       </c>
       <c r="H95" t="n">
-        <v>-12.10086487385201</v>
+        <v>-8.418002845838277</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1002750761920783</v>
+        <v>-0.09990940808470872</v>
       </c>
       <c r="H96" t="n">
-        <v>-10.501778712507</v>
+        <v>10.82814740185563</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09784264263653457</v>
+        <v>-0.09159854297364702</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.547626133886171</v>
+        <v>14.38391306809088</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.09812542002195246</v>
+        <v>0.1025977708313954</v>
       </c>
       <c r="H98" t="n">
-        <v>1.438588604499585</v>
+        <v>6.061946687986916</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1345036915279767</v>
+        <v>0.1188603185201959</v>
       </c>
       <c r="H99" t="n">
-        <v>18.09157926075277</v>
+        <v>4.35700735073484</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.03496826161904468</v>
+        <v>0.0247692033069713</v>
       </c>
       <c r="H100" t="n">
-        <v>-8.980781909092768</v>
+        <v>-35.52800701687175</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02855653295243258</v>
+        <v>0.03365220133474094</v>
       </c>
       <c r="H101" t="n">
-        <v>41.60642427106949</v>
+        <v>66.87487615532966</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>0.006017805447412232</v>
+        <v>0.002313703025908039</v>
       </c>
       <c r="H102" t="n">
-        <v>-352.8475601693244</v>
+        <v>197.2138714302899</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.001383148843213472</v>
+        <v>-0.004207494770466766</v>
       </c>
       <c r="H103" t="n">
-        <v>-78.68812026946365</v>
+        <v>35.16993998511484</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07903315430086562</v>
+        <v>0.06287746648684088</v>
       </c>
       <c r="H104" t="n">
-        <v>72.18892533737335</v>
+        <v>36.99065256955406</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05422133720829371</v>
+        <v>0.07892766290303159</v>
       </c>
       <c r="H105" t="n">
-        <v>-18.40191103207524</v>
+        <v>18.77882013221225</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2951442058040675</v>
+        <v>-0.2803298906593655</v>
       </c>
       <c r="H106" t="n">
-        <v>14.50242875146602</v>
+        <v>-8.75515324681292</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.2773570247468525</v>
+        <v>-0.264044377765342</v>
       </c>
       <c r="H107" t="n">
-        <v>-4.16770093882271</v>
+        <v>8.767481917842129</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1405630181690855</v>
+        <v>0.1468987000953454</v>
       </c>
       <c r="H108" t="n">
-        <v>-6.92818263693492</v>
+        <v>-2.733100325867831</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1772259138046285</v>
+        <v>0.1810387015957947</v>
       </c>
       <c r="H109" t="n">
-        <v>-6.133740069299797</v>
+        <v>-4.11432810982336</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.06837122490721807</v>
+        <v>0.047858762578374</v>
       </c>
       <c r="H110" t="n">
-        <v>-4.901504658126808</v>
+        <v>-33.43257611219385</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07285605285948533</v>
+        <v>0.09606382727216953</v>
       </c>
       <c r="H111" t="n">
-        <v>11.39609527754936</v>
+        <v>46.88052447990162</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0909483125701078</v>
+        <v>0.07929195802579968</v>
       </c>
       <c r="H112" t="n">
-        <v>8.032326613366362</v>
+        <v>-5.813593840420894</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1095909627050994</v>
+        <v>0.1123999150024838</v>
       </c>
       <c r="H113" t="n">
-        <v>42.28806099136774</v>
+        <v>45.93508047131867</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_trimester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>-0.02128444168333563</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02294635183554025</v>
+        <v>-0.01240465161932685</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.80809840788913</v>
+        <v>41.71962880737009</v>
       </c>
       <c r="I2" t="n">
-        <v>68.44563823984758</v>
+        <v>49.216984848671</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.002664891383783825</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.005088209417183637</v>
+        <v>0.005202176985495099</v>
       </c>
       <c r="H3" t="n">
-        <v>-290.934964484706</v>
+        <v>95.21159538249675</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05321994618623679</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0679657537650446</v>
+        <v>0.05528236016018368</v>
       </c>
       <c r="H4" t="n">
-        <v>27.70729516938374</v>
+        <v>3.875265049554401</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.0852934825407035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07620901279824556</v>
+        <v>0.07294317953073924</v>
       </c>
       <c r="H5" t="n">
-        <v>-10.65083693601405</v>
+        <v>-14.47977341536088</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.0554920936022294</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0317795767581021</v>
+        <v>0.01613135003692889</v>
       </c>
       <c r="H6" t="n">
-        <v>-42.73134298031719</v>
+        <v>-70.93036324677284</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.07491945851042606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06384648195541892</v>
+        <v>0.03079583897036081</v>
       </c>
       <c r="H7" t="n">
-        <v>-14.7798406117233</v>
+        <v>-58.89473898683457</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.01989470793288118</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0071589023024818</v>
+        <v>-0.005421888990029802</v>
       </c>
       <c r="H8" t="n">
-        <v>64.01604724917901</v>
+        <v>72.74707923171508</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.007233984490205318</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005182103347514474</v>
+        <v>-0.03154639800310619</v>
       </c>
       <c r="H9" t="n">
-        <v>171.6355330113155</v>
+        <v>-336.0860608122596</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04956874841392311</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03050473063495742</v>
+        <v>-0.04085443147900869</v>
       </c>
       <c r="H10" t="n">
-        <v>38.45975214014258</v>
+        <v>17.58026420628102</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.07728189684970925</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03433407810488269</v>
+        <v>-0.04958165891835946</v>
       </c>
       <c r="H11" t="n">
-        <v>55.57293557163528</v>
+        <v>35.84311340755348</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.07980687010666844</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1002129077678734</v>
+        <v>-0.07455540307244829</v>
       </c>
       <c r="H12" t="n">
-        <v>-25.56927446713623</v>
+        <v>6.580219255812354</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.0456853607372041</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03622426372301572</v>
+        <v>-0.02363068845668367</v>
       </c>
       <c r="H13" t="n">
-        <v>20.70925316451246</v>
+        <v>48.27514093056093</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.05569564680090808</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03630895681779825</v>
+        <v>-0.03387379405715505</v>
       </c>
       <c r="H14" t="n">
-        <v>34.80826796465849</v>
+        <v>39.18053563819505</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08457829896791694</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06051676607313714</v>
+        <v>-0.06025581797399962</v>
       </c>
       <c r="H15" t="n">
-        <v>28.44882574891587</v>
+        <v>28.75735418034779</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.1551086605234518</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1931910672512695</v>
+        <v>-0.1609330909914588</v>
       </c>
       <c r="H16" t="n">
-        <v>-24.55208277816299</v>
+        <v>-3.755064642007132</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.196307304145773</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1587842937033834</v>
+        <v>-0.1618160877717244</v>
       </c>
       <c r="H17" t="n">
-        <v>19.11442399235737</v>
+        <v>17.57001173447742</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1089990278022111</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.08567862708378995</v>
+        <v>-0.09938988733471227</v>
       </c>
       <c r="H18" t="n">
-        <v>21.39505387216681</v>
+        <v>8.815803829861229</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.08814841109674791</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.07446886260369263</v>
+        <v>-0.0626338682529866</v>
       </c>
       <c r="H19" t="n">
-        <v>15.51876922437228</v>
+        <v>28.9449832689073</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.09184313783912948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08912428926360952</v>
+        <v>0.09621194430950092</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.960317601824797</v>
+        <v>4.75681316335658</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.07533414722486551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1531232871000044</v>
+        <v>0.1420304193458543</v>
       </c>
       <c r="H21" t="n">
-        <v>103.258804593547</v>
+        <v>88.53391798795646</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1204592976011019</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1148750088521277</v>
+        <v>0.1178139300221623</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.635830409261088</v>
+        <v>-2.196067577697217</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1312986137888283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1702396330272542</v>
+        <v>0.1283722013762482</v>
       </c>
       <c r="H23" t="n">
-        <v>29.65836280728445</v>
+        <v>-2.228822017334273</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.09539283949644414</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08846044036746673</v>
+        <v>0.09876566431349756</v>
       </c>
       <c r="H24" t="n">
-        <v>-7.267211213726194</v>
+        <v>3.53572116613548</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.08579711767041676</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08800206841437284</v>
+        <v>0.0985624568139883</v>
       </c>
       <c r="H25" t="n">
-        <v>2.569958996089172</v>
+        <v>14.87851747258998</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.03839809538484177</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04383732770509187</v>
+        <v>0.03999925837111439</v>
       </c>
       <c r="H26" t="n">
-        <v>14.16537009384408</v>
+        <v>4.169902101198242</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.03582845994197422</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0411341758416397</v>
+        <v>0.04681315074660355</v>
       </c>
       <c r="H27" t="n">
-        <v>14.80866302447361</v>
+        <v>30.65912077275864</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.09796179107594548</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1096136032901521</v>
+        <v>-0.1174207986391134</v>
       </c>
       <c r="H28" t="n">
-        <v>-11.89424171019238</v>
+        <v>-19.86387483267043</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1088522038387277</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07417066330973944</v>
+        <v>-0.1051302439786635</v>
       </c>
       <c r="H29" t="n">
-        <v>31.86112848975611</v>
+        <v>3.419278369024627</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1219412424932649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1091326058033469</v>
+        <v>0.1236318269499762</v>
       </c>
       <c r="H30" t="n">
-        <v>-10.50394142951714</v>
+        <v>1.386392677444355</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1076118874153121</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1038299164205884</v>
+        <v>0.1375094454631858</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.514454662548324</v>
+        <v>27.78276523716058</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04499552197252324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05101797179332302</v>
+        <v>0.0574130118709951</v>
       </c>
       <c r="H32" t="n">
-        <v>13.38455374398684</v>
+        <v>27.59716823832974</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08487522191377532</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07921569000408435</v>
+        <v>0.07408127070025201</v>
       </c>
       <c r="H33" t="n">
-        <v>-6.66806139893276</v>
+        <v>-12.71743504186519</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.0004660235177815866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02695554242283305</v>
+        <v>0.01485416622392635</v>
       </c>
       <c r="H34" t="n">
-        <v>5884.159252552236</v>
+        <v>3287.428457395603</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.04093434214336689</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03962916004886993</v>
+        <v>0.04876722921095659</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.188477024806555</v>
+        <v>19.13524599993836</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0415113657231789</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02954639633275564</v>
+        <v>0.03518414629608797</v>
       </c>
       <c r="H36" t="n">
-        <v>-28.82335760816061</v>
+        <v>-15.24213746491595</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.04216040373967738</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03486561929223821</v>
+        <v>0.04375068019367384</v>
       </c>
       <c r="H37" t="n">
-        <v>-17.3024539624463</v>
+        <v>3.771966852632016</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1039739096269103</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.08804834498968342</v>
+        <v>-0.1001182663737915</v>
       </c>
       <c r="H38" t="n">
-        <v>15.31688545171823</v>
+        <v>3.70827957412972</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.09852995720668313</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1448434563064085</v>
+        <v>-0.1261918121315741</v>
       </c>
       <c r="H39" t="n">
-        <v>-47.00448514615207</v>
+        <v>-28.07456301525188</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1323218375265205</v>
       </c>
       <c r="G40" t="n">
-        <v>0.121068649249695</v>
+        <v>0.1312790486080425</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.504407501573638</v>
+        <v>-0.7880701613359962</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1267009868675925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1395326688378181</v>
+        <v>0.1441904087191647</v>
       </c>
       <c r="H41" t="n">
-        <v>10.12753119566084</v>
+        <v>13.8036982062731</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.09447104872146661</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0808103968982937</v>
+        <v>0.08865295585846353</v>
       </c>
       <c r="H42" t="n">
-        <v>-14.46014626496764</v>
+        <v>-6.158598789515756</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1058719362354479</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1078279640528576</v>
+        <v>0.08751827308001052</v>
       </c>
       <c r="H43" t="n">
-        <v>1.847541366448339</v>
+        <v>-17.33572069053388</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.01216440566173687</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.03658044346954216</v>
+        <v>-0.0272288909763092</v>
       </c>
       <c r="H44" t="n">
-        <v>-200.7170632643888</v>
+        <v>-123.84070158033</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.03656027190585381</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.02544620618592829</v>
+        <v>-0.05580699088765362</v>
       </c>
       <c r="H45" t="n">
-        <v>30.39929721678575</v>
+        <v>-52.64380700275412</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05457460206694808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.070444272075354</v>
+        <v>0.0688377778403276</v>
       </c>
       <c r="H46" t="n">
-        <v>29.07885611137977</v>
+        <v>26.13518969113602</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04037053293827826</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05053622176743094</v>
+        <v>0.06455400854791762</v>
       </c>
       <c r="H47" t="n">
-        <v>25.1809626707054</v>
+        <v>59.90378092509459</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.03012034174997524</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01910229472153049</v>
+        <v>-0.0280789180783914</v>
       </c>
       <c r="H48" t="n">
-        <v>36.58008637453062</v>
+        <v>6.777558131741714</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.034643218916641</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.01502981622786903</v>
+        <v>-0.02168152087759457</v>
       </c>
       <c r="H49" t="n">
-        <v>56.61541652917997</v>
+        <v>37.41482011309357</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.09003797538347245</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09227025571108155</v>
+        <v>0.07860194721898187</v>
       </c>
       <c r="H50" t="n">
-        <v>2.479265352315838</v>
+        <v>-12.701338647148</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.06553556525960107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0938228174328516</v>
+        <v>0.07073504823191498</v>
       </c>
       <c r="H51" t="n">
-        <v>43.16320773491217</v>
+        <v>7.933834020836773</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.01470322082648128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02641376226976027</v>
+        <v>0.04255376881703128</v>
       </c>
       <c r="H52" t="n">
-        <v>79.64609646743305</v>
+        <v>189.4180079264652</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.02817170113177487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04410738158447108</v>
+        <v>0.03469473603372747</v>
       </c>
       <c r="H53" t="n">
-        <v>56.56626974053175</v>
+        <v>23.15456518383715</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.01940294010798635</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04203541567378691</v>
+        <v>0.03269364697313422</v>
       </c>
       <c r="H54" t="n">
-        <v>116.6445674719416</v>
+        <v>68.49841720470675</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06524260029020125</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06073412507133078</v>
+        <v>0.06444612379684173</v>
       </c>
       <c r="H55" t="n">
-        <v>-6.910324234191497</v>
+        <v>-1.220792074222625</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.0641781204552333</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07056482830130842</v>
+        <v>0.06442731503484318</v>
       </c>
       <c r="H56" t="n">
-        <v>9.951534574045514</v>
+        <v>0.3882858797395055</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07576686946588479</v>
       </c>
       <c r="G57" t="n">
-        <v>0.07642865858941712</v>
+        <v>0.07434300353933616</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8734544903301225</v>
+        <v>-1.879272479628769</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02847630423672948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01988635358609587</v>
+        <v>0.0156188250960581</v>
       </c>
       <c r="H58" t="n">
-        <v>-30.16525803075973</v>
+        <v>-45.15150222368909</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02686028148673385</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04114138550880591</v>
+        <v>0.03288773461513514</v>
       </c>
       <c r="H59" t="n">
-        <v>53.16811005545649</v>
+        <v>22.44002219923948</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04500636224518111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04504619946452724</v>
+        <v>0.04203197307292623</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08851463961718194</v>
+        <v>-6.608819339922005</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.05002809311484576</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0437507194386796</v>
+        <v>0.04658507678780521</v>
       </c>
       <c r="H61" t="n">
-        <v>-12.54769727432077</v>
+        <v>-6.882165824583144</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.01272562495970764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.002932344710179803</v>
+        <v>0.004102720354967619</v>
       </c>
       <c r="H62" t="n">
-        <v>123.0428345913407</v>
+        <v>132.2398339410269</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.004162259998573769</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.005217934428760093</v>
+        <v>0.01306818868003836</v>
       </c>
       <c r="H63" t="n">
-        <v>-225.3630102527968</v>
+        <v>213.9685816002911</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.0376710040004436</v>
       </c>
       <c r="G64" t="n">
-        <v>0.05307306406258239</v>
+        <v>0.04365547680726989</v>
       </c>
       <c r="H64" t="n">
-        <v>40.88571693485372</v>
+        <v>15.88615160550491</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.07640761714161863</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07139264142358999</v>
+        <v>0.06825736316161454</v>
       </c>
       <c r="H65" t="n">
-        <v>-6.563449961714646</v>
+        <v>-10.66680821219421</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>-0.006238749439107168</v>
       </c>
       <c r="G66" t="n">
-        <v>0.002690947521082984</v>
+        <v>-0.008393720304579411</v>
       </c>
       <c r="H66" t="n">
-        <v>143.1328032540459</v>
+        <v>-34.54171202908001</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.005892943546921596</v>
       </c>
       <c r="G67" t="n">
-        <v>0.002690947521082984</v>
+        <v>0.01592669147026038</v>
       </c>
       <c r="H67" t="n">
-        <v>-54.33610555307792</v>
+        <v>170.2671651857295</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0001716157251843049</v>
       </c>
       <c r="G68" t="n">
-        <v>0.000627807328901356</v>
+        <v>-0.0001165968264616847</v>
       </c>
       <c r="H68" t="n">
-        <v>265.821563395271</v>
+        <v>-167.9406425818303</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.007043594041830695</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01938293376989071</v>
+        <v>0.02275859153390558</v>
       </c>
       <c r="H69" t="n">
-        <v>175.1852769307657</v>
+        <v>223.1104944258033</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06299908755829023</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.07523284303827732</v>
+        <v>-0.07568822958428316</v>
       </c>
       <c r="H70" t="n">
-        <v>-19.41894074047937</v>
+        <v>-20.14178699691839</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.04730516206304128</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.04221787524240884</v>
+        <v>-0.04971723301131956</v>
       </c>
       <c r="H71" t="n">
-        <v>10.75418960377487</v>
+        <v>-5.0989592743892</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.06847592646162251</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06614058184701074</v>
+        <v>0.05748080244120504</v>
       </c>
       <c r="H72" t="n">
-        <v>-3.41046077838847</v>
+        <v>-16.0569189619942</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.07366264370932236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.06106784589000337</v>
+        <v>0.06872015343826297</v>
       </c>
       <c r="H73" t="n">
-        <v>-17.09794433799972</v>
+        <v>-6.709629226128216</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.06303615637490191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05723075404379209</v>
+        <v>0.04736947629198524</v>
       </c>
       <c r="H74" t="n">
-        <v>-9.209638824713089</v>
+        <v>-24.85348248351389</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.02646870739540554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04237257174723589</v>
+        <v>0.03408348244215643</v>
       </c>
       <c r="H75" t="n">
-        <v>60.08553464379207</v>
+        <v>28.76897210353637</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.01714470650454962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.004776672461040252</v>
+        <v>0.001911229486507962</v>
       </c>
       <c r="H76" t="n">
-        <v>-72.13908293050869</v>
+        <v>-88.85236392935167</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.01169430463304436</v>
       </c>
       <c r="G77" t="n">
-        <v>0.002719112089917521</v>
+        <v>0.002347100220614753</v>
       </c>
       <c r="H77" t="n">
-        <v>123.251592764517</v>
+        <v>120.0704556129195</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.002539526868269664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009482533763944727</v>
+        <v>0.008862875886863795</v>
       </c>
       <c r="H78" t="n">
-        <v>273.3976545956279</v>
+        <v>248.9971300403141</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>-0.006752083176529837</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.01151510872846026</v>
+        <v>0.01445601817555556</v>
       </c>
       <c r="H79" t="n">
-        <v>-70.54157105893846</v>
+        <v>314.0971578342594</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.01234481053610307</v>
       </c>
       <c r="G80" t="n">
-        <v>0.04024918690697113</v>
+        <v>0.05050741584479113</v>
       </c>
       <c r="H80" t="n">
-        <v>226.0413498389481</v>
+        <v>309.1388498598618</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.04004608055976637</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04835091085817522</v>
+        <v>0.03967615030860968</v>
       </c>
       <c r="H81" t="n">
-        <v>20.73818506661193</v>
+        <v>-0.9237614417835261</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.03928809251547295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05097908363435408</v>
+        <v>0.05279741138657129</v>
       </c>
       <c r="H82" t="n">
-        <v>29.75708508698106</v>
+        <v>34.38527555334462</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.04149682722649796</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04891991039061815</v>
+        <v>0.04855086745469574</v>
       </c>
       <c r="H83" t="n">
-        <v>17.88831498756164</v>
+        <v>16.9989869097592</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03654648917907651</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03742241375552598</v>
+        <v>0.02423545569306133</v>
       </c>
       <c r="H84" t="n">
-        <v>2.396740688708743</v>
+        <v>-33.6859538701284</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.03101871278460367</v>
       </c>
       <c r="G85" t="n">
-        <v>0.02099874272220387</v>
+        <v>0.04127637248905199</v>
       </c>
       <c r="H85" t="n">
-        <v>-32.30298475626389</v>
+        <v>33.06926298224656</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.03261223752283318</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02388957396413521</v>
+        <v>0.02649644028972734</v>
       </c>
       <c r="H86" t="n">
-        <v>-26.74659643512922</v>
+        <v>-18.75307460527331</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.05399281271560582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05815200188966769</v>
+        <v>0.03901479061149236</v>
       </c>
       <c r="H87" t="n">
-        <v>7.703227457271768</v>
+        <v>-27.74077020770634</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.08448630414914524</v>
       </c>
       <c r="G88" t="n">
-        <v>0.07877076956690031</v>
+        <v>0.06041448066540867</v>
       </c>
       <c r="H88" t="n">
-        <v>-6.765042736577977</v>
+        <v>-28.49198308076316</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.09030780820119737</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06929129549517113</v>
+        <v>0.09531908569494356</v>
       </c>
       <c r="H89" t="n">
-        <v>-23.27208812243943</v>
+        <v>5.549107650339086</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.04974785729329481</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0370092656606965</v>
+        <v>-0.04135958808754967</v>
       </c>
       <c r="H90" t="n">
-        <v>25.60631216234365</v>
+        <v>16.86156884364091</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.0205140569395008</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03189250372715842</v>
+        <v>-0.02045798782048381</v>
       </c>
       <c r="H91" t="n">
-        <v>-55.46658479702216</v>
+        <v>0.2733204805970184</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03950860788423817</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03859690560331989</v>
+        <v>0.03977480486327339</v>
       </c>
       <c r="H92" t="n">
-        <v>-2.307604164615485</v>
+        <v>0.6737695740006463</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04921641955585528</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05954523779233722</v>
+        <v>0.03659281472361132</v>
       </c>
       <c r="H93" t="n">
-        <v>20.98652914960596</v>
+        <v>-25.64917347942702</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.09075840206556264</v>
       </c>
       <c r="G94" t="n">
-        <v>0.09606277465981709</v>
+        <v>0.08447769819653424</v>
       </c>
       <c r="H94" t="n">
-        <v>5.844497560041488</v>
+        <v>-6.920245096967781</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.1040519379641745</v>
       </c>
       <c r="G95" t="n">
-        <v>0.09529284286520041</v>
+        <v>0.1038929940813158</v>
       </c>
       <c r="H95" t="n">
-        <v>-8.418002845838277</v>
+        <v>-0.1527543705273635</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1120414179740702</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09990940808470872</v>
+        <v>-0.1005902362073769</v>
       </c>
       <c r="H96" t="n">
-        <v>10.82814740185563</v>
+        <v>10.22048986326061</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1069875373380423</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.09159854297364702</v>
+        <v>-0.107609581096529</v>
       </c>
       <c r="H97" t="n">
-        <v>14.38391306809088</v>
+        <v>-0.5814170266591623</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.09673381833469225</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1025977708313954</v>
+        <v>0.09268210984435556</v>
       </c>
       <c r="H98" t="n">
-        <v>6.061946687986916</v>
+        <v>-4.188512931762975</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1138977837115592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1188603185201959</v>
+        <v>0.1074335549264696</v>
       </c>
       <c r="H99" t="n">
-        <v>4.35700735073484</v>
+        <v>-5.675464942724402</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.03841854759081696</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0247692033069713</v>
+        <v>0.03350324774162128</v>
       </c>
       <c r="H100" t="n">
-        <v>-35.52800701687175</v>
+        <v>-12.79408035292456</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.02016612812549264</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03365220133474094</v>
+        <v>0.05220079179317448</v>
       </c>
       <c r="H101" t="n">
-        <v>66.87487615532966</v>
+        <v>158.853814020877</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.00238001325517331</v>
       </c>
       <c r="G102" t="n">
-        <v>0.002313703025908039</v>
+        <v>0.001626560594505549</v>
       </c>
       <c r="H102" t="n">
-        <v>197.2138714302899</v>
+        <v>168.3425014953164</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00649003682782449</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.004207494770466766</v>
+        <v>0.005091230384296999</v>
       </c>
       <c r="H103" t="n">
-        <v>35.16993998511484</v>
+        <v>178.4468643146917</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04589909260773555</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06287746648684088</v>
+        <v>0.07796323977349516</v>
       </c>
       <c r="H104" t="n">
-        <v>36.99065256955406</v>
+        <v>69.85791078657559</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.06644927337649718</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07892766290303159</v>
+        <v>0.0794291009848946</v>
       </c>
       <c r="H105" t="n">
-        <v>18.77882013221225</v>
+        <v>19.53343798788374</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.2577623977258113</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2803298906593655</v>
+        <v>-0.2924840183802953</v>
       </c>
       <c r="H106" t="n">
-        <v>-8.75515324681292</v>
+        <v>-13.47039791716181</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.289419149351508</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.264044377765342</v>
+        <v>-0.2856461658088676</v>
       </c>
       <c r="H107" t="n">
-        <v>8.767481917842129</v>
+        <v>1.303639911558854</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.1510264032137262</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1468987000953454</v>
+        <v>0.1339671741520072</v>
       </c>
       <c r="H108" t="n">
-        <v>-2.733100325867831</v>
+        <v>-11.29552760226799</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.1888068342506362</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1810387015957947</v>
+        <v>0.1949512370465052</v>
       </c>
       <c r="H109" t="n">
-        <v>-4.11432810982336</v>
+        <v>3.254332831889146</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.07189517001444425</v>
       </c>
       <c r="G110" t="n">
-        <v>0.047858762578374</v>
+        <v>0.04368576257246505</v>
       </c>
       <c r="H110" t="n">
-        <v>-33.43257611219385</v>
+        <v>-39.23686032915942</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.06540269897069602</v>
       </c>
       <c r="G111" t="n">
-        <v>0.09606382727216953</v>
+        <v>0.08957203310791045</v>
       </c>
       <c r="H111" t="n">
-        <v>46.88052447990162</v>
+        <v>36.95464333672776</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.08418620187233398</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07929195802579968</v>
+        <v>0.08844344234229251</v>
       </c>
       <c r="H112" t="n">
-        <v>-5.813593840420894</v>
+        <v>5.056933767382108</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.0770204906452046</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1123999150024838</v>
+        <v>0.0758581743712225</v>
       </c>
       <c r="H113" t="n">
-        <v>45.93508047131867</v>
+        <v>-1.509100064470266</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>